--- a/Entity idea.xlsx
+++ b/Entity idea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinh\Documents\Projects\money-management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltti\Documents\GitHub\money-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF723A-2391-4B10-B631-6CB974402A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABE4D01-55E1-4521-8E2C-28C6236AD4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC3F191F-33F2-45E3-9500-2146EE3343A9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FC3F191F-33F2-45E3-9500-2146EE3343A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Thu nhập</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Chi tiêu</t>
   </si>
   <si>
-    <t>Tiền tệ</t>
-  </si>
-  <si>
     <t>VND</t>
   </si>
   <si>
@@ -104,17 +101,23 @@
     <t>Mua ổi</t>
   </si>
   <si>
-    <t>Hình ảnh (bill)</t>
-  </si>
-  <si>
     <t>(Contact)</t>
+  </si>
+  <si>
+    <t>Tiền tệ (Currency)</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Hình ảnh (Images)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +145,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -178,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -203,6 +221,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE78541E-D712-4294-A998-0284267A00F9}">
-  <dimension ref="B2:K17"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -530,14 +560,15 @@
     <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1"/>
     <col min="8" max="8" width="23.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="12" style="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -556,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
@@ -570,21 +601,30 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="13" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -598,22 +638,22 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -624,23 +664,24 @@
         <v>4</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="8">
         <v>39490</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
@@ -650,21 +691,43 @@
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6" t="s">
+    </row>
+    <row r="17" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="9"/>
+      <c r="I17" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="9:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="9"/>
+      <c r="I19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I19:J19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
